--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2823.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2823.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.175695477851744</v>
+        <v>1.02406370639801</v>
       </c>
       <c r="B1">
-        <v>2.439005715371377</v>
+        <v>2.424098014831543</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>5.205649852752686</v>
       </c>
       <c r="D1">
-        <v>2.363729229933112</v>
+        <v>2.270311594009399</v>
       </c>
       <c r="E1">
-        <v>1.234769244373523</v>
+        <v>1.337273120880127</v>
       </c>
     </row>
   </sheetData>
